--- a/자유수강권자 환불/논술2(강사).xlsx
+++ b/자유수강권자 환불/논술2(강사).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
   <si>
     <t>주야</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>이우성</t>
+  </si>
+  <si>
+    <t>김서빈</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>홍나은</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>장민경</t>
+  </si>
+  <si>
+    <t>이지민</t>
   </si>
 </sst>
 </file>
@@ -212,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,11 +253,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -247,6 +306,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -541,9 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -747,10 +815,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -767,13 +835,13 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -790,13 +858,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -813,13 +881,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -836,13 +904,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -859,13 +927,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -879,16 +947,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -902,16 +970,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -925,16 +993,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -948,16 +1016,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -971,16 +1039,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -994,16 +1062,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1017,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1040,23 +1108,80 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.5">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.5">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
